--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2020 base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E4BBDBF-22DD-42FC-A486-A6D7F79C56C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5035F3B-4739-4C9A-B60C-1294E56A89A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6206,14 +6206,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,17 +6249,17 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>4524014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0.23780000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.61964199066162107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0.58200000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6315,17 +6315,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6366,15 +6366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>7.2599999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0.47549999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.37380000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -6406,18 +6406,18 @@
         <v>7.8100000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0.11900000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0.58800000001490116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6458,20 +6458,20 @@
         <v>1.0000000000149012</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -6523,16 +6523,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6571,16 +6571,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2.3146142467800002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>2.3146142467800002</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -6621,12 +6621,12 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>2.1759475900795508E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0.5349591597151282</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6682,7 +6682,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6690,7 +6690,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6737,104 +6737,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6857,85 +6857,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6955,9 +6955,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>0.12194000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -7069,7 +7069,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7082,7 +7082,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7808,7 +7808,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8180,7 +8180,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8421,7 +8421,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8882,7 +8882,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8894,7 +8894,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9501,10 +9501,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>0.50302000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.21557999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>0.28139999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10135,7 +10135,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>0.23780000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10649,7 +10649,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10664,7 +10664,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10716,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10750,7 +10750,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10824,7 +10824,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10843,7 +10843,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10911,7 +10911,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10930,7 +10930,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10987,7 +10987,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11154,7 +11154,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11281,7 +11281,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +11338,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11412,7 +11412,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11427,7 +11427,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11607,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11649,7 +11649,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11670,7 +11670,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11691,7 +11691,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11786,7 +11786,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11794,7 +11794,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -12021,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12174,14 +12174,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12488,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12532,14 +12532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12586,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12651,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12802,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12893,12 +12893,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12908,6 +12902,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12925,7 +12925,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12935,12 +12935,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12955,7 +12955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -13033,13 +13033,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -13057,14 +13057,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13084,7 +13084,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13147,7 +13147,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13298,10 +13298,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13322,7 +13322,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13333,12 +13333,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="112" customFormat="1">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13372,7 +13372,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13404,7 +13404,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13519,7 +13519,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13892,7 +13892,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -14063,12 +14063,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="112" customFormat="1">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14102,7 +14102,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14134,7 +14134,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14218,7 +14218,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14277,7 +14277,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14448,7 +14448,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14594,7 +14594,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +14678,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14709,7 +14709,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14765,7 +14765,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14793,16 +14793,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="112" customFormat="1">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14856,7 +14856,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14903,7 +14903,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14925,7 +14925,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14972,16 +14972,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="112" customFormat="1">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15047,7 +15047,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15162,7 +15162,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15591,7 +15591,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15793,7 +15793,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15821,7 +15821,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15852,7 +15852,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15880,7 +15880,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15908,7 +15908,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15936,7 +15936,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15967,7 +15967,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15995,7 +15995,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -16023,7 +16023,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -16051,12 +16051,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="112" customFormat="1">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16090,7 +16090,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16120,7 +16120,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16148,7 +16148,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16176,7 +16176,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16225,14 +16225,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2020</v>
@@ -16294,7 +16294,7 @@
         <v>13958373.680506686</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2021</v>
@@ -16327,7 +16327,7 @@
         <v>14082241.848463524</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16360,7 +16360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16393,7 +16393,7 @@
         <v>14269708.606145907</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16426,7 +16426,7 @@
         <v>14346111.153413089</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16459,7 +16459,7 @@
         <v>14408834.376026273</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16492,7 +16492,7 @@
         <v>14466126.047384471</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16525,7 +16525,7 @@
         <v>14509803.101337086</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16558,7 +16558,7 @@
         <v>14542858.53718039</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16591,7 +16591,7 @@
         <v>14572340.765188834</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16624,7 +16624,7 @@
         <v>14597259.310344828</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16657,7 +16657,7 @@
         <v>9354728.1526127663</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16680,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16795,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17094,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17163,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17186,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17301,7 +17301,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17313,12 +17313,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17380,12 +17380,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17453,12 +17453,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17479,16 +17479,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17532,7 +17532,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17555,13 +17555,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17611,7 +17611,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17620,7 +17620,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17676,7 +17676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17714,7 +17714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17866,10 +17866,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17890,7 +17890,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17898,7 +17898,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17941,12 +17941,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18474,13 +18474,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18656,16 +18656,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18686,7 +18686,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18694,7 +18694,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18713,12 +18713,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18749,7 +18749,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18787,7 +18787,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18800,7 +18800,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -19189,7 +19189,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19210,7 +19210,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19255,7 +19255,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19303,7 +19303,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -20010,7 +20010,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -20019,7 +20019,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -20041,7 +20041,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -20083,7 +20083,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -20107,7 +20107,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -20184,24 +20184,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20222,7 +20222,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20231,7 +20231,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20431,14 +20431,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2020) attributable to cause</v>
@@ -20449,7 +20449,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20464,7 +20464,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>2.6879714999999992E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>0.14025685004313904</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>0.1504609236578823</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>0.11161772154851962</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>0.1940480394671277</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>1.8245371133766535E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>0.18179024982026401</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>0.19312196334969067</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20539,7 +20539,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20548,7 +20548,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>7.9660060613350195E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>0.158873380541285</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>4.3830843374711298E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20637,7 +20637,7 @@
         <v>1.7649542293752901E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>2.7329121636381602E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>5.4726958698978499E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>2.9578014059303396E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>0.22872559914891799</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>0.38624669228669217</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20745,7 +20745,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20754,7 +20754,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20770,7 +20770,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>0.26739999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>0.12529999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>7.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>8.14E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>4.7699999999999992E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>0.14779999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>0.20189999999776481</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20870,13 +20870,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2020)</v>
@@ -20900,7 +20900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>0.27629999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20944,7 +20944,7 @@
         <v>0.36009999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20965,7 +20965,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20986,7 +20986,7 @@
         <v>0.1011</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20994,7 +20994,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -21002,7 +21002,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>0.70150000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>0.24340000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>4.6900000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>8.2169000000000009E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -21099,7 +21099,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>0.46718000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -21244,14 +21244,14 @@
         <v>0.24992222023571362</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -21277,13 +21277,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2020)</v>
@@ -21307,7 +21307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21408,17 +21408,17 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21458,10 +21458,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21484,10 +21484,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21507,7 +21507,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21524,7 +21524,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21541,7 +21541,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21561,7 +21561,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21578,7 +21578,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21601,7 +21601,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21631,11 +21631,11 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21643,7 +21643,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21660,7 +21660,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21674,63 +21674,59 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="81"/>
       <c r="E3" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="81"/>
       <c r="E4" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="C5" s="81"/>
       <c r="D5" s="81"/>
       <c r="E5" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="C6" s="81"/>
       <c r="D6" s="81"/>
       <c r="E6" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21739,7 +21735,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21750,29 +21746,25 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="81"/>
-      <c r="D10" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="81"/>
-      <c r="D11" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21783,7 +21775,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21794,7 +21786,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21803,7 +21795,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21817,7 +21809,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21829,7 +21821,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21841,7 +21833,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21853,7 +21845,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21865,7 +21857,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21894,7 +21886,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21902,7 +21894,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21916,7 +21908,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21930,7 +21922,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21961,7 +21953,7 @@
       <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21971,7 +21963,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21989,7 +21981,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -22006,7 +21998,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -22023,7 +22015,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -22040,7 +22032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -22057,7 +22049,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -22074,7 +22066,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -22091,7 +22083,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -22108,7 +22100,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -22125,7 +22117,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -22142,7 +22134,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -22159,7 +22151,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -22176,7 +22168,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -22193,7 +22185,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -22210,7 +22202,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -22227,7 +22219,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -22244,7 +22236,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -22261,7 +22253,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -22278,7 +22270,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -22295,7 +22287,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -22312,7 +22304,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -22329,7 +22321,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -22346,7 +22338,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -22363,7 +22355,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -22380,7 +22372,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22397,7 +22389,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22414,7 +22406,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22431,7 +22423,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22448,7 +22440,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22465,7 +22457,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22482,7 +22474,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22499,7 +22491,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22516,7 +22508,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22533,7 +22525,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22550,7 +22542,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22567,7 +22559,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22584,7 +22576,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22602,7 +22594,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22619,7 +22611,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22636,7 +22628,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5035F3B-4739-4C9A-B60C-1294E56A89A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B15130EE-7534-4AB5-A179-65A75C9B7E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16267,7 +16267,7 @@
         <v>2020</v>
       </c>
       <c r="B2" s="74">
-        <v>942657</v>
+        <v>951003</v>
       </c>
       <c r="C2" s="75">
         <v>2571000</v>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="H2" s="22">
         <f t="shared" ref="H2:H40" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
-        <v>1105626.3194933145</v>
+        <v>1115415.200562984</v>
       </c>
       <c r="I2" s="22">
         <f>G2-H2</f>
-        <v>13958373.680506686</v>
+        <v>13948584.799437016</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
@@ -16300,7 +16300,7 @@
         <v>2021</v>
       </c>
       <c r="B3" s="74">
-        <v>935096</v>
+        <v>942657</v>
       </c>
       <c r="C3" s="75">
         <v>2559000</v>
@@ -16320,11 +16320,11 @@
       </c>
       <c r="H3" s="22">
         <f t="shared" si="1"/>
-        <v>1096758.1515364766</v>
+        <v>1105626.3194933145</v>
       </c>
       <c r="I3" s="22">
         <f t="shared" ref="I3:I15" si="3">G3-H3</f>
-        <v>14082241.848463524</v>
+        <v>14073373.680506686</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
@@ -16332,8 +16332,8 @@
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="B4" s="74" t="e">
-        <v>#N/A</v>
+      <c r="B4" s="74">
+        <v>935096</v>
       </c>
       <c r="C4" s="75">
         <v>2528000</v>
@@ -16351,13 +16351,13 @@
         <f t="shared" si="0"/>
         <v>15281000</v>
       </c>
-      <c r="H4" s="22" t="e">
+      <c r="H4" s="22">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" s="22" t="e">
+        <v>1096758.1515364766</v>
+      </c>
+      <c r="I4" s="22">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>14184241.848463524</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
@@ -20914,13 +20914,13 @@
         <v>0.75700000000000001</v>
       </c>
       <c r="E2" s="77">
-        <v>0.65249999999999997</v>
+        <v>0.65189999999999992</v>
       </c>
       <c r="F2" s="77">
-        <v>0.39759999999999995</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="G2" s="77">
-        <v>0.27629999999999999</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
@@ -20935,13 +20935,13 @@
         <v>0.1641</v>
       </c>
       <c r="E3" s="77">
-        <v>0.2039</v>
+        <v>0.20370000000000002</v>
       </c>
       <c r="F3" s="77">
-        <v>0.35570000000000002</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="G3" s="77">
-        <v>0.36009999999999998</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
@@ -20956,13 +20956,13 @@
         <v>5.3600000000000002E-2</v>
       </c>
       <c r="E4" s="78">
-        <v>0.10400000000000001</v>
+        <v>0.10460000000000001</v>
       </c>
       <c r="F4" s="78">
-        <v>0.16839999999999999</v>
+        <v>0.16920000000000002</v>
       </c>
       <c r="G4" s="78">
-        <v>0.26250000000000001</v>
+        <v>0.2626</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
@@ -20977,10 +20977,10 @@
         <v>2.53E-2</v>
       </c>
       <c r="E5" s="78">
-        <v>3.95E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="F5" s="78">
-        <v>7.8299999999999995E-2</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="G5" s="78">
         <v>0.1011</v>
@@ -21163,28 +21163,28 @@
         <v>0.341500033373</v>
       </c>
       <c r="H14" s="80">
-        <v>0.57499</v>
+        <v>0.59179000000000004</v>
       </c>
       <c r="I14" s="80">
-        <v>0.57499</v>
+        <v>0.59179000000000004</v>
       </c>
       <c r="J14" s="80">
-        <v>0.57499</v>
+        <v>0.59179000000000004</v>
       </c>
       <c r="K14" s="80">
-        <v>0.57499</v>
+        <v>0.59179000000000004</v>
       </c>
       <c r="L14" s="80">
-        <v>0.46718000000000004</v>
+        <v>0.46822999999999998</v>
       </c>
       <c r="M14" s="80">
-        <v>0.46718000000000004</v>
+        <v>0.46822999999999998</v>
       </c>
       <c r="N14" s="80">
-        <v>0.46718000000000004</v>
+        <v>0.46822999999999998</v>
       </c>
       <c r="O14" s="80">
-        <v>0.46718000000000004</v>
+        <v>0.46822999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1">
@@ -21213,35 +21213,35 @@
       </c>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
-        <v>0.30759616724460154</v>
+        <v>0.31658348112781576</v>
       </c>
       <c r="I15" s="77">
         <f t="shared" si="0"/>
-        <v>0.30759616724460154</v>
+        <v>0.31658348112781576</v>
       </c>
       <c r="J15" s="77">
         <f t="shared" si="0"/>
-        <v>0.30759616724460154</v>
+        <v>0.31658348112781576</v>
       </c>
       <c r="K15" s="77">
         <f t="shared" si="0"/>
-        <v>0.30759616724460154</v>
+        <v>0.31658348112781576</v>
       </c>
       <c r="L15" s="77">
         <f t="shared" si="0"/>
-        <v>0.24992222023571362</v>
+        <v>0.25048392735341446</v>
       </c>
       <c r="M15" s="77">
         <f t="shared" si="0"/>
-        <v>0.24992222023571362</v>
+        <v>0.25048392735341446</v>
       </c>
       <c r="N15" s="77">
         <f t="shared" si="0"/>
-        <v>0.24992222023571362</v>
+        <v>0.25048392735341446</v>
       </c>
       <c r="O15" s="77">
         <f t="shared" si="0"/>
-        <v>0.24992222023571362</v>
+        <v>0.25048392735341446</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
@@ -21315,10 +21315,10 @@
         <v>166</v>
       </c>
       <c r="C2" s="78">
-        <v>0.69640000000000002</v>
+        <v>0.69040000000000001</v>
       </c>
       <c r="D2" s="78">
-        <v>0.47189999999999999</v>
+        <v>0.46049999999999996</v>
       </c>
       <c r="E2" s="78">
         <v>0</v>
@@ -21335,10 +21335,10 @@
         <v>167</v>
       </c>
       <c r="C3" s="78">
-        <v>0.1673</v>
+        <v>0.17059999999999997</v>
       </c>
       <c r="D3" s="78">
-        <v>0.22190000000000001</v>
+        <v>0.22670000000000001</v>
       </c>
       <c r="E3" s="78">
         <v>0</v>
@@ -21355,10 +21355,10 @@
         <v>168</v>
       </c>
       <c r="C4" s="78">
-        <v>0.1363</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D4" s="78">
-        <v>0.2858</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E4" s="78">
         <v>0</v>
@@ -21380,7 +21380,7 @@
       </c>
       <c r="D5" s="77">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
-        <v>2.0399999999999974E-2</v>
+        <v>2.079999999999993E-2</v>
       </c>
       <c r="E5" s="77">
         <f t="shared" si="0"/>
@@ -21443,13 +21443,13 @@
         <v>143</v>
       </c>
       <c r="C2" s="28">
-        <v>0.28860000000000002</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D2" s="28">
-        <v>0.28909999999999997</v>
+        <v>0.28970000000000001</v>
       </c>
       <c r="E2" s="28">
-        <v>0.28860000000000002</v>
+        <v>0.28949999999999998</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -21472,10 +21472,10 @@
         <v>6.7600000000000007E-2</v>
       </c>
       <c r="D4" s="28">
-        <v>6.3E-2</v>
+        <v>6.7600000000000007E-2</v>
       </c>
       <c r="E4" s="28">
-        <v>6.3E-2</v>
+        <v>6.7600000000000007E-2</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -21513,7 +21513,7 @@
       </c>
       <c r="C7" s="28">
         <f>'Nutritional status distribution'!H14</f>
-        <v>0.57499</v>
+        <v>0.59179000000000004</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -21530,7 +21530,7 @@
       </c>
       <c r="C8" s="28">
         <f>'Nutritional status distribution'!L14</f>
-        <v>0.46718000000000004</v>
+        <v>0.46822999999999998</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -21550,7 +21550,7 @@
       </c>
       <c r="C10" s="28">
         <f>SUM('Breastfeeding distribution'!D2)</f>
-        <v>0.47189999999999999</v>
+        <v>0.46049999999999996</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -22190,7 +22190,7 @@
         <v>189</v>
       </c>
       <c r="B14" s="85">
-        <v>0.48299999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="C14" s="85">
         <v>0.95</v>
@@ -22258,7 +22258,7 @@
         <v>175</v>
       </c>
       <c r="B18" s="85">
-        <v>0.42100000000000004</v>
+        <v>0.379</v>
       </c>
       <c r="C18" s="85">
         <v>0.95</v>
@@ -22275,7 +22275,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="85">
-        <v>0.21299999999999999</v>
+        <v>0.191</v>
       </c>
       <c r="C19" s="85">
         <v>0.95</v>
@@ -22445,7 +22445,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="85">
-        <v>0.21299999999999999</v>
+        <v>0.191</v>
       </c>
       <c r="C29" s="85">
         <v>0.95</v>
@@ -22462,7 +22462,7 @@
         <v>67</v>
       </c>
       <c r="B30" s="85">
-        <v>0.03</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="C30" s="85">
         <v>0.95</v>
@@ -22496,7 +22496,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="85">
-        <v>0.76300000000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="C32" s="85">
         <v>0.95</v>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B15130EE-7534-4AB5-A179-65A75C9B7E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58DFD3C9-73D9-4978-A1B4-8B26F9B35E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6206,14 +6206,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,17 +6249,17 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>4524014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0.23780000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.61964199066162107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0.58200000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6315,17 +6315,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6366,15 +6366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>7.2599999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0.47549999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.37380000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -6406,18 +6406,18 @@
         <v>7.8100000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0.11900000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0.58800000001490116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6458,20 +6458,20 @@
         <v>1.0000000000149012</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -6523,16 +6523,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6571,16 +6571,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2.3146142467800002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>2.3146142467800002</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -6621,12 +6621,12 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>2.1759475900795508E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0.5349591597151282</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6682,7 +6682,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6690,7 +6690,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6737,104 +6737,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6857,85 +6857,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6955,9 +6955,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>0.12194000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -7069,7 +7069,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7082,7 +7082,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7808,7 +7808,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8180,7 +8180,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8421,7 +8421,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8882,7 +8882,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8894,7 +8894,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9501,10 +9501,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>0.50302000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.21557999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>0.28139999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10135,7 +10135,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>0.23780000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10649,7 +10649,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10664,7 +10664,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10716,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10750,7 +10750,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10824,7 +10824,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10843,7 +10843,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10911,7 +10911,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10930,7 +10930,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10987,7 +10987,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11154,7 +11154,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11281,7 +11281,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +11338,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11412,7 +11412,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11427,7 +11427,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11607,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11649,7 +11649,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11670,7 +11670,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11691,7 +11691,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11786,7 +11786,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11794,7 +11794,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -12021,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12174,14 +12174,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12488,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12532,14 +12532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12586,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12651,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12802,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12925,7 +12925,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12935,12 +12935,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12955,7 +12955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -13033,13 +13033,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -13057,14 +13057,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13084,7 +13084,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13147,7 +13147,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13298,10 +13298,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13322,7 +13322,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13333,12 +13333,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13372,7 +13372,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13404,7 +13404,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13519,7 +13519,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13892,7 +13892,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -14063,12 +14063,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1">
+    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14102,7 +14102,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14134,7 +14134,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14218,7 +14218,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14277,7 +14277,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14448,7 +14448,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14594,7 +14594,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +14678,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14709,7 +14709,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14765,7 +14765,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14793,16 +14793,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1">
+    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14856,7 +14856,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14903,7 +14903,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14925,7 +14925,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14972,16 +14972,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1">
+    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15047,7 +15047,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15162,7 +15162,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15591,7 +15591,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15793,7 +15793,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15821,7 +15821,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15852,7 +15852,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15880,7 +15880,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15908,7 +15908,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15936,7 +15936,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15967,7 +15967,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15995,7 +15995,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -16023,7 +16023,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -16051,12 +16051,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1">
+    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16090,7 +16090,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16120,7 +16120,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16148,7 +16148,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16176,7 +16176,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16225,14 +16225,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2020</v>
@@ -16294,7 +16294,7 @@
         <v>13948584.799437016</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2021</v>
@@ -16327,7 +16327,7 @@
         <v>14073373.680506686</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16360,7 +16360,7 @@
         <v>14184241.848463524</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16393,7 +16393,7 @@
         <v>14269708.606145907</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16426,7 +16426,7 @@
         <v>14346111.153413089</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16459,7 +16459,7 @@
         <v>14408834.376026273</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16492,7 +16492,7 @@
         <v>14466126.047384471</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16525,7 +16525,7 @@
         <v>14509803.101337086</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16558,7 +16558,7 @@
         <v>14542858.53718039</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16591,7 +16591,7 @@
         <v>14572340.765188834</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16624,7 +16624,7 @@
         <v>14597259.310344828</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16657,7 +16657,7 @@
         <v>9354728.1526127663</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16680,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16795,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17094,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17163,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17186,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17301,7 +17301,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17313,12 +17313,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17380,12 +17380,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17453,12 +17453,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17479,16 +17479,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17532,7 +17532,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17555,13 +17555,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17611,7 +17611,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17620,7 +17620,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17676,7 +17676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17714,7 +17714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17866,10 +17866,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17890,7 +17890,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17898,7 +17898,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17941,12 +17941,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18474,13 +18474,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18656,16 +18656,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18686,7 +18686,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18694,7 +18694,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18713,12 +18713,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18749,7 +18749,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18787,7 +18787,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18800,7 +18800,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -19189,7 +19189,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19210,7 +19210,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19255,7 +19255,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19303,7 +19303,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -20010,7 +20010,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -20019,7 +20019,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -20041,7 +20041,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -20083,7 +20083,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -20107,7 +20107,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -20184,24 +20184,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20222,7 +20222,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20231,7 +20231,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20431,14 +20431,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2020) attributable to cause</v>
@@ -20449,7 +20449,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20464,7 +20464,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>2.6879714999999992E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>0.14025685004313904</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>0.1504609236578823</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>0.11161772154851962</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>0.1940480394671277</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>1.8245371133766535E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>0.18179024982026401</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>0.19312196334969067</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20539,7 +20539,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20548,7 +20548,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>7.9660060613350195E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>0.158873380541285</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>4.3830843374711298E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20637,7 +20637,7 @@
         <v>1.7649542293752901E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>2.7329121636381602E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>5.4726958698978499E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>2.9578014059303396E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>0.22872559914891799</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>0.38624669228669217</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20745,7 +20745,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20754,7 +20754,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20770,7 +20770,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>0.26739999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>0.12529999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>7.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>8.14E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>4.7699999999999992E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>0.14779999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>0.20189999999776481</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20870,13 +20870,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2020)</v>
@@ -20900,7 +20900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>0.2762</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20944,7 +20944,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20965,7 +20965,7 @@
         <v>0.2626</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20986,7 +20986,7 @@
         <v>0.1011</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20994,7 +20994,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -21002,7 +21002,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>0.70150000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>0.24340000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>4.6900000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>8.2169000000000009E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -21099,7 +21099,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>0.46822999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -21244,14 +21244,14 @@
         <v>0.25048392735341446</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -21277,13 +21277,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2020)</v>
@@ -21307,7 +21307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21412,13 +21412,13 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21458,10 +21458,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21484,10 +21484,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21507,7 +21507,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21524,7 +21524,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21541,7 +21541,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21561,7 +21561,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21578,7 +21578,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21601,7 +21601,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21635,7 +21635,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21643,7 +21643,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21660,7 +21660,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21688,7 +21688,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21702,7 +21702,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21714,7 +21714,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21726,7 +21726,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21735,7 +21735,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21746,7 +21746,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21755,7 +21755,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21764,7 +21764,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21775,7 +21775,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21795,7 +21795,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21809,7 +21809,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21821,7 +21821,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21833,7 +21833,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21845,7 +21845,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21857,7 +21857,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21886,7 +21886,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21894,7 +21894,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21908,7 +21908,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21922,7 +21922,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21953,7 +21953,7 @@
       <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21963,7 +21963,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -21992,13 +21992,13 @@
         <v>0.95</v>
       </c>
       <c r="D2" s="86">
-        <v>39.222404520785908</v>
+        <v>41.58</v>
       </c>
       <c r="E2" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -22009,13 +22009,13 @@
         <v>0.95</v>
       </c>
       <c r="D3" s="86">
-        <v>54.737134105512624</v>
+        <v>58.02</v>
       </c>
       <c r="E3" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -22026,13 +22026,13 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="86">
-        <v>119.55153720587505</v>
+        <v>126.72</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -22043,13 +22043,13 @@
         <v>0.95</v>
       </c>
       <c r="D5" s="86">
-        <v>0.72650555976092457</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -22060,13 +22060,13 @@
         <v>0.95</v>
       </c>
       <c r="D6" s="86">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="E6" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -22077,13 +22077,13 @@
         <v>0.95</v>
       </c>
       <c r="D7" s="86">
-        <v>0.3715978850511571</v>
+        <v>0.39</v>
       </c>
       <c r="E7" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -22094,13 +22094,13 @@
         <v>0.95</v>
       </c>
       <c r="D8" s="86">
-        <v>0.3715978850511571</v>
+        <v>0.39</v>
       </c>
       <c r="E8" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -22111,13 +22111,13 @@
         <v>0.95</v>
       </c>
       <c r="D9" s="86">
-        <v>0.3715978850511571</v>
+        <v>0.39</v>
       </c>
       <c r="E9" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -22128,13 +22128,13 @@
         <v>0.95</v>
       </c>
       <c r="D10" s="86">
-        <v>1.4030587089597073</v>
+        <v>1.49</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -22145,13 +22145,13 @@
         <v>0.95</v>
       </c>
       <c r="D11" s="86">
-        <v>1.4030587089597073</v>
+        <v>1.58</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -22162,13 +22162,13 @@
         <v>0.95</v>
       </c>
       <c r="D12" s="86">
-        <v>1.4030587089597073</v>
+        <v>1.58</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -22179,13 +22179,13 @@
         <v>0.95</v>
       </c>
       <c r="D13" s="86">
-        <v>1.4030587089597073</v>
+        <v>1.58</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -22196,13 +22196,13 @@
         <v>0.95</v>
       </c>
       <c r="D14" s="86">
-        <v>17.420883333006955</v>
+        <v>18.47</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -22213,13 +22213,13 @@
         <v>0.95</v>
       </c>
       <c r="D15" s="86">
-        <v>17.420883333006955</v>
+        <v>19.57</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -22230,13 +22230,13 @@
         <v>0.95</v>
       </c>
       <c r="D16" s="86">
-        <v>0.13690448396621577</v>
+        <v>84.15</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -22247,13 +22247,13 @@
         <v>0.95</v>
       </c>
       <c r="D17" s="86">
-        <v>0.34694694397271492</v>
+        <v>0.37</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -22264,13 +22264,13 @@
         <v>0.95</v>
       </c>
       <c r="D18" s="86">
-        <v>2.8448355135048673</v>
+        <v>3.02</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -22281,13 +22281,13 @@
         <v>0.95</v>
       </c>
       <c r="D19" s="86">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -22298,13 +22298,13 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="86">
-        <v>0.42</v>
+        <v>84.45</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -22315,13 +22315,13 @@
         <v>0.95</v>
       </c>
       <c r="D21" s="86">
-        <v>6.2873932146726759</v>
+        <v>6.66</v>
       </c>
       <c r="E21" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -22332,13 +22332,13 @@
         <v>0.95</v>
       </c>
       <c r="D22" s="86">
-        <v>29.721241430461134</v>
+        <v>31.5</v>
       </c>
       <c r="E22" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -22349,13 +22349,13 @@
         <v>0.95</v>
       </c>
       <c r="D23" s="86">
-        <v>5.6963080880733798</v>
+        <v>6.04</v>
       </c>
       <c r="E23" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -22366,13 +22366,13 @@
         <v>0.95</v>
       </c>
       <c r="D24" s="86">
-        <v>25.150709521879183</v>
+        <v>26.66</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22383,13 +22383,13 @@
         <v>0.95</v>
       </c>
       <c r="D25" s="86">
-        <v>25.146097133146249</v>
+        <v>26.65</v>
       </c>
       <c r="E25" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22400,13 +22400,13 @@
         <v>0.95</v>
       </c>
       <c r="D26" s="86">
-        <v>5.7825145197971226</v>
+        <v>6.13</v>
       </c>
       <c r="E26" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22417,13 +22417,13 @@
         <v>0.95</v>
       </c>
       <c r="D27" s="86">
-        <v>4.450242080317949</v>
+        <v>4.72</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22434,13 +22434,13 @@
         <v>0.95</v>
       </c>
       <c r="D28" s="86">
-        <v>0.81090405630602469</v>
+        <v>0.86</v>
       </c>
       <c r="E28" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22451,13 +22451,13 @@
         <v>0.95</v>
       </c>
       <c r="D29" s="86">
-        <v>70.723861239789485</v>
+        <v>74.97</v>
       </c>
       <c r="E29" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22468,13 +22468,13 @@
         <v>0.95</v>
       </c>
       <c r="D30" s="86">
-        <v>183.44572433320783</v>
+        <v>198.98</v>
       </c>
       <c r="E30" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22485,13 +22485,13 @@
         <v>0.95</v>
       </c>
       <c r="D31" s="86">
-        <v>183.44572433320783</v>
+        <v>210.92</v>
       </c>
       <c r="E31" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22502,13 +22502,13 @@
         <v>0.95</v>
       </c>
       <c r="D32" s="86">
-        <v>0.67793297191267776</v>
+        <v>0.72</v>
       </c>
       <c r="E32" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22519,13 +22519,13 @@
         <v>0.95</v>
       </c>
       <c r="D33" s="144">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E33" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22536,13 +22536,13 @@
         <v>0.95</v>
       </c>
       <c r="D34" s="144">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E34" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22553,13 +22553,13 @@
         <v>0.95</v>
       </c>
       <c r="D35" s="144">
-        <v>79</v>
+        <v>83.74</v>
       </c>
       <c r="E35" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22570,13 +22570,13 @@
         <v>0.95</v>
       </c>
       <c r="D36" s="144">
-        <v>31</v>
+        <v>32.86</v>
       </c>
       <c r="E36" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22587,14 +22587,14 @@
         <v>0.95</v>
       </c>
       <c r="D37" s="144">
-        <v>102</v>
+        <v>108.12</v>
       </c>
       <c r="E37" s="86" t="s">
         <v>201</v>
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22605,13 +22605,13 @@
         <v>0.95</v>
       </c>
       <c r="D38" s="86">
-        <v>2.3716149074679511</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E38" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22622,13 +22622,13 @@
         <v>0.95</v>
       </c>
       <c r="D39" s="86">
-        <v>0.70726972133526633</v>
+        <v>0.75</v>
       </c>
       <c r="E39" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58DFD3C9-73D9-4978-A1B4-8B26F9B35E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF24021-9DC6-4950-A51F-6DC16028D0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21586,14 +21586,10 @@
         <v>148</v>
       </c>
       <c r="C13" s="145">
-        <v>38.682000000000002</v>
-      </c>
-      <c r="D13" s="28">
-        <v>36.917000000000002</v>
-      </c>
-      <c r="E13" s="28">
-        <v>35.293999999999997</v>
-      </c>
+        <v>48.6</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF24021-9DC6-4950-A51F-6DC16028D0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17CF7839-7020-4D67-9FF2-57F5F186616C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6206,14 +6206,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,17 +6249,17 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>4524014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0.23780000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.61964199066162107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0.58200000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6315,17 +6315,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6366,15 +6366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>7.2599999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0.47549999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.37380000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -6406,18 +6406,18 @@
         <v>7.8100000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0.11900000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0.58800000001490116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6458,20 +6458,20 @@
         <v>1.0000000000149012</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -6523,16 +6523,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6571,16 +6571,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2.3146142467800002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>2.3146142467800002</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -6621,12 +6621,12 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>2.1759475900795508E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0.5349591597151282</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6682,7 +6682,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6690,7 +6690,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6737,104 +6737,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6857,85 +6857,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6955,9 +6955,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>0.12194000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -7069,7 +7069,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7082,7 +7082,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7808,7 +7808,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8180,7 +8180,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8421,7 +8421,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8882,7 +8882,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8894,7 +8894,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9501,10 +9501,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>0.50302000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.21557999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>0.28139999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10135,7 +10135,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>0.23780000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10649,7 +10649,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10664,7 +10664,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10716,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10750,7 +10750,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10824,7 +10824,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10843,7 +10843,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10911,7 +10911,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10930,7 +10930,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10987,7 +10987,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11154,7 +11154,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11281,7 +11281,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +11338,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11412,7 +11412,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11427,7 +11427,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11607,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11649,7 +11649,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11670,7 +11670,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11691,7 +11691,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11786,7 +11786,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11794,7 +11794,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -12021,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12174,14 +12174,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12488,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12532,14 +12532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12586,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12651,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12802,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12925,7 +12925,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12935,12 +12935,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12955,7 +12955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -13033,13 +13033,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -13057,14 +13057,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13084,7 +13084,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13147,7 +13147,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13298,10 +13298,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13322,7 +13322,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13333,12 +13333,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="112" customFormat="1">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13372,7 +13372,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13404,7 +13404,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13519,7 +13519,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13892,7 +13892,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -14063,12 +14063,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="112" customFormat="1">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14102,7 +14102,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14134,7 +14134,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14218,7 +14218,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14277,7 +14277,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14448,7 +14448,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14594,7 +14594,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +14678,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14709,7 +14709,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14765,7 +14765,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14793,16 +14793,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="112" customFormat="1">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14856,7 +14856,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14903,7 +14903,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14925,7 +14925,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14972,16 +14972,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="112" customFormat="1">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15047,7 +15047,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15162,7 +15162,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15591,7 +15591,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15793,7 +15793,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15821,7 +15821,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15852,7 +15852,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15880,7 +15880,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15908,7 +15908,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15936,7 +15936,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15967,7 +15967,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15995,7 +15995,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -16023,7 +16023,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -16051,12 +16051,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="112" customFormat="1">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16090,7 +16090,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16120,7 +16120,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16148,7 +16148,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16176,7 +16176,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16225,14 +16225,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2020</v>
@@ -16294,7 +16294,7 @@
         <v>13948584.799437016</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2021</v>
@@ -16327,7 +16327,7 @@
         <v>14073373.680506686</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16360,7 +16360,7 @@
         <v>14184241.848463524</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16393,7 +16393,7 @@
         <v>14269708.606145907</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16426,7 +16426,7 @@
         <v>14346111.153413089</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16459,7 +16459,7 @@
         <v>14408834.376026273</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16492,7 +16492,7 @@
         <v>14466126.047384471</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16525,7 +16525,7 @@
         <v>14509803.101337086</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16558,7 +16558,7 @@
         <v>14542858.53718039</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16591,7 +16591,7 @@
         <v>14572340.765188834</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16624,7 +16624,7 @@
         <v>14597259.310344828</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16657,7 +16657,7 @@
         <v>9354728.1526127663</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16680,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16795,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17094,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17163,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17186,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17301,7 +17301,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17313,12 +17313,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17380,12 +17380,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17453,12 +17453,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17479,16 +17479,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17532,7 +17532,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17555,13 +17555,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17611,7 +17611,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17620,7 +17620,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17676,7 +17676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17714,7 +17714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17866,10 +17866,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17890,7 +17890,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17898,7 +17898,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17941,12 +17941,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18474,13 +18474,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18656,16 +18656,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18686,7 +18686,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18694,7 +18694,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18713,12 +18713,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18749,7 +18749,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18787,7 +18787,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18800,7 +18800,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -19189,7 +19189,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19210,7 +19210,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19255,7 +19255,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19303,7 +19303,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -20010,7 +20010,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -20019,7 +20019,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -20041,7 +20041,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -20083,7 +20083,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -20107,7 +20107,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -20184,24 +20184,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20222,7 +20222,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20231,7 +20231,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20431,14 +20431,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2020) attributable to cause</v>
@@ -20449,7 +20449,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20464,7 +20464,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>2.6879714999999992E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>0.14025685004313904</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>0.1504609236578823</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>0.11161772154851962</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>0.1940480394671277</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>1.8245371133766535E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>0.18179024982026401</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>0.19312196334969067</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20539,7 +20539,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20548,7 +20548,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>7.9660060613350195E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>0.158873380541285</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>4.3830843374711298E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20637,7 +20637,7 @@
         <v>1.7649542293752901E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>2.7329121636381602E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>5.4726958698978499E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>2.9578014059303396E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>0.22872559914891799</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>0.38624669228669217</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20745,7 +20745,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20754,7 +20754,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20770,7 +20770,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>0.26739999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>0.12529999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>7.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>8.14E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>4.7699999999999992E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>0.14779999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>0.20189999999776481</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20870,13 +20870,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2020)</v>
@@ -20900,7 +20900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>0.2762</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20944,7 +20944,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20965,7 +20965,7 @@
         <v>0.2626</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20986,7 +20986,7 @@
         <v>0.1011</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20994,7 +20994,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -21002,7 +21002,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>0.70150000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>0.24340000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>4.6900000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>8.2169000000000009E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -21099,7 +21099,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>0.46822999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -21244,14 +21244,14 @@
         <v>0.25048392735341446</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -21277,13 +21277,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2020)</v>
@@ -21307,7 +21307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21412,13 +21412,13 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21458,10 +21458,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21484,10 +21484,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21507,7 +21507,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21524,7 +21524,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21541,7 +21541,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21561,7 +21561,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21578,7 +21578,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21597,7 +21597,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21631,7 +21631,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21639,7 +21639,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21656,7 +21656,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21670,7 +21670,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21684,7 +21684,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21698,7 +21698,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21710,7 +21710,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21722,7 +21722,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21731,7 +21731,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21742,7 +21742,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21751,7 +21751,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21760,7 +21760,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21771,7 +21771,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21791,7 +21791,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21805,7 +21805,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21817,7 +21817,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21829,7 +21829,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21841,7 +21841,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21853,7 +21853,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21882,7 +21882,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21890,7 +21890,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21949,7 +21949,7 @@
       <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21959,7 +21959,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -21994,7 +21994,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -22062,7 +22062,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -22096,7 +22096,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -22113,7 +22113,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -22141,13 +22141,13 @@
         <v>0.95</v>
       </c>
       <c r="D11" s="86">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -22158,13 +22158,13 @@
         <v>0.95</v>
       </c>
       <c r="D12" s="86">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -22175,13 +22175,13 @@
         <v>0.95</v>
       </c>
       <c r="D13" s="86">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -22198,7 +22198,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -22209,13 +22209,13 @@
         <v>0.95</v>
       </c>
       <c r="D15" s="86">
-        <v>19.57</v>
+        <v>18.47</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -22226,13 +22226,13 @@
         <v>0.95</v>
       </c>
       <c r="D16" s="86">
-        <v>84.15</v>
+        <v>0.37</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -22243,13 +22243,13 @@
         <v>0.95</v>
       </c>
       <c r="D17" s="86">
-        <v>0.37</v>
+        <v>0.15</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -22266,7 +22266,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -22277,13 +22277,13 @@
         <v>0.95</v>
       </c>
       <c r="D19" s="86">
-        <v>3.2</v>
+        <v>3.02</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -22300,7 +22300,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -22334,7 +22334,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -22368,7 +22368,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22385,7 +22385,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22402,7 +22402,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22413,13 +22413,13 @@
         <v>0.95</v>
       </c>
       <c r="D27" s="86">
-        <v>4.72</v>
+        <v>26.66</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22436,7 +22436,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22453,7 +22453,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22470,7 +22470,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22487,7 +22487,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22504,7 +22504,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22521,7 +22521,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22538,7 +22538,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22572,7 +22572,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22590,7 +22590,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22607,7 +22607,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22624,7 +22624,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17CF7839-7020-4D67-9FF2-57F5F186616C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBAF3A83-CF18-4D1B-89E5-4C3A640EF6D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6202,18 +6202,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,17 +6249,17 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>4524014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0.23780000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.61964199066162107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0.58200000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6315,17 +6315,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6366,15 +6366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>7.2599999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0.47549999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.37380000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -6406,18 +6406,18 @@
         <v>7.8100000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0.11900000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0.58800000001490116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6458,20 +6458,20 @@
         <v>1.0000000000149012</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -6523,16 +6523,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6571,16 +6571,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2.3146142467800002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>2.3146142467800002</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -6621,12 +6621,12 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>2.1759475900795508E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0.5349591597151282</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6679,10 +6679,10 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6690,7 +6690,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6737,104 +6737,110 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-    </row>
-    <row r="7" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6857,85 +6863,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6955,9 +6961,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>1.6670658655599999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -7027,7 +7033,7 @@
         <v>0.12194000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -7069,7 +7075,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7082,7 +7088,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7129,7 +7135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7220,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7308,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7352,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7396,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7440,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7484,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7616,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7660,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7704,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7748,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7792,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7808,7 +7814,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7900,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7944,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7988,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -8032,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8076,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8120,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8164,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8180,7 +8186,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8228,7 +8234,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8317,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8405,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8421,7 +8427,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8512,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8556,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8600,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8644,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8689,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8733,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8777,7 +8783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8821,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8878,11 +8884,11 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8894,7 +8900,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +8947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8992,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9080,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9126,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9173,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9268,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9316,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9364,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9408,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9457,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9501,10 +9507,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9555,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9600,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9649,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9698,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9746,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9790,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9882,10 +9888,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9984,7 +9990,7 @@
         <v>0.50302000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -10032,7 +10038,7 @@
         <v>0.21557999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10080,7 +10086,7 @@
         <v>0.28139999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10125,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10135,7 +10141,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10193,7 +10199,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10248,7 +10254,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10303,7 +10309,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10347,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10404,7 +10410,7 @@
         <v>0.23780000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10448,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10493,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10537,7 +10543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10581,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10625,7 +10631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10649,7 +10655,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10664,7 +10670,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10699,7 +10705,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10722,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10733,7 +10739,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10750,7 +10756,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10767,7 +10773,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10786,7 +10792,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10805,7 +10811,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10824,7 +10830,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10843,7 +10849,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10860,7 +10866,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10877,7 +10883,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10894,7 +10900,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10911,7 +10917,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10930,7 +10936,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10949,7 +10955,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10970,7 +10976,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10987,7 +10993,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -11006,7 +11012,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -11025,7 +11031,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -11044,7 +11050,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -11063,7 +11069,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11084,7 +11090,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11103,7 +11109,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11120,7 +11126,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11137,7 +11143,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11154,7 +11160,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11173,7 +11179,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11196,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11209,7 +11215,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11226,7 +11232,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11243,7 +11249,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11262,7 +11268,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11281,7 +11287,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11300,7 +11306,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11319,7 +11325,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +11344,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11357,7 +11363,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11374,7 +11380,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11412,7 +11418,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11427,7 +11433,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11462,7 +11468,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11491,7 +11497,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11520,7 +11526,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11549,7 +11555,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11578,7 +11584,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11613,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11628,7 +11634,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11649,7 +11655,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11670,7 +11676,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11691,7 +11697,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11712,7 +11718,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11731,7 +11737,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11750,7 +11756,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11782,11 +11788,11 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11794,7 +11800,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11820,7 +11826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11868,7 +11874,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11890,7 +11896,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11914,7 +11920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11935,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11956,7 +11962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11979,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -12000,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -12021,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12065,7 +12071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12086,7 +12092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12109,7 +12115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12130,7 +12136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12151,7 +12157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12174,14 +12180,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12207,7 +12213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12228,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12249,7 +12255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12272,7 +12278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12293,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12314,7 +12320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12337,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12358,7 +12364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12379,7 +12385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12402,7 +12408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12423,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12444,7 +12450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12461,13 +12467,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12482,13 +12488,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12509,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12532,14 +12538,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12565,7 +12571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12586,7 +12592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12607,7 +12613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12630,7 +12636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12651,7 +12657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12672,7 +12678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12695,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12716,7 +12722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12737,7 +12743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12760,7 +12766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12781,7 +12787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12802,7 +12808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12825,7 +12831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12846,7 +12852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12867,7 +12873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12893,6 +12899,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12902,12 +12914,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12925,7 +12931,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12935,12 +12941,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12955,7 +12961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12965,7 +12971,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12982,7 +12988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12999,7 +13005,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -13016,7 +13022,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -13033,13 +13039,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -13057,14 +13063,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13074,7 +13080,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13084,7 +13090,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13102,7 +13108,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13120,7 +13126,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13138,7 +13144,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13147,7 +13153,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13158,7 +13164,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13176,7 +13182,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13194,7 +13200,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13212,7 +13218,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13230,7 +13236,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13253,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13281,7 +13287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13298,10 +13304,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13318,11 +13324,11 @@
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13333,12 +13339,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13372,7 +13378,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13404,7 +13410,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13432,7 +13438,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13460,7 +13466,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13488,7 +13494,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13519,7 +13525,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13547,7 +13553,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13575,7 +13581,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13603,7 +13609,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13634,7 +13640,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13668,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13690,7 +13696,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13718,7 +13724,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13749,7 +13755,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13777,7 +13783,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13805,7 +13811,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13833,7 +13839,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13864,7 +13870,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13892,7 +13898,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13926,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13948,7 +13954,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13979,7 +13985,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -14007,7 +14013,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -14035,7 +14041,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -14063,12 +14069,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1">
+    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14102,7 +14108,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14134,7 +14140,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14162,7 +14168,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14190,7 +14196,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14218,7 +14224,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14249,7 +14255,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14277,7 +14283,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14305,7 +14311,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14333,7 +14339,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14364,7 +14370,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14392,7 +14398,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14420,7 +14426,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14448,7 +14454,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14479,7 +14485,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14507,7 +14513,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14535,7 +14541,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14563,7 +14569,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14594,7 +14600,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14622,7 +14628,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14650,7 +14656,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +14684,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14709,7 +14715,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14737,7 +14743,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14765,7 +14771,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14793,16 +14799,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1">
+    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14830,7 +14836,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14856,7 +14862,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14878,7 +14884,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14903,7 +14909,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14925,7 +14931,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14950,7 +14956,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14972,16 +14978,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1">
+    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -15015,7 +15021,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15047,7 +15053,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15075,7 +15081,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15103,7 +15109,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15131,7 +15137,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15162,7 +15168,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15190,7 +15196,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15218,7 +15224,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15246,7 +15252,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15283,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15305,7 +15311,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15333,7 +15339,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15361,7 +15367,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15398,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15420,7 +15426,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15448,7 +15454,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15476,7 +15482,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15507,7 +15513,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15535,7 +15541,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15563,7 +15569,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15591,7 +15597,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15622,7 +15628,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15650,7 +15656,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15678,7 +15684,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15706,7 +15712,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15737,7 +15743,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15765,7 +15771,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15793,7 +15799,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15821,7 +15827,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15852,7 +15858,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15880,7 +15886,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15908,7 +15914,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15936,7 +15942,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15967,7 +15973,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15995,7 +16001,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -16023,7 +16029,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -16051,12 +16057,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1">
+    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16090,7 +16096,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16120,7 +16126,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16148,7 +16154,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16176,7 +16182,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16204,7 +16210,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16225,14 +16231,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16261,7 +16267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2020</v>
@@ -16294,7 +16300,7 @@
         <v>13948584.799437016</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2021</v>
@@ -16327,7 +16333,7 @@
         <v>14073373.680506686</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16360,7 +16366,7 @@
         <v>14184241.848463524</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16393,7 +16399,7 @@
         <v>14269708.606145907</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16426,7 +16432,7 @@
         <v>14346111.153413089</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16459,7 +16465,7 @@
         <v>14408834.376026273</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16492,7 +16498,7 @@
         <v>14466126.047384471</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16525,7 +16531,7 @@
         <v>14509803.101337086</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16558,7 +16564,7 @@
         <v>14542858.53718039</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16591,7 +16597,7 @@
         <v>14572340.765188834</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16624,7 +16630,7 @@
         <v>14597259.310344828</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16657,7 +16663,7 @@
         <v>9354728.1526127663</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16680,7 +16686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16703,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16726,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16749,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16772,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16795,7 +16801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16818,7 +16824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16841,7 +16847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16864,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16887,7 +16893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16910,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16933,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16956,7 +16962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16979,7 +16985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17002,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17025,7 +17031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17048,7 +17054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17071,7 +17077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17094,7 +17100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17117,7 +17123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17140,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17163,7 +17169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17186,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17209,7 +17215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17232,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17255,7 +17261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17301,7 +17307,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17313,12 +17319,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17339,7 +17345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17359,7 +17365,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17380,12 +17386,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17405,7 +17411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17425,7 +17431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17445,7 +17451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17453,12 +17459,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17479,16 +17485,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17511,7 +17517,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17532,7 +17538,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17555,13 +17561,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17575,7 +17581,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17611,7 +17617,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17620,7 +17626,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17638,7 +17644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17658,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17676,7 +17682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17696,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17714,7 +17720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17734,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17752,7 +17758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17772,7 +17778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17790,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17810,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17828,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17848,7 +17854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17866,10 +17872,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17890,7 +17896,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17898,7 +17904,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17941,12 +17947,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17990,7 +17996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -18034,7 +18040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -18078,7 +18084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -18122,7 +18128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -18166,7 +18172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18210,7 +18216,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18254,7 +18260,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18298,7 +18304,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18342,7 +18348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18386,7 +18392,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18430,7 +18436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18474,13 +18480,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18524,7 +18530,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18568,7 +18574,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18612,7 +18618,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18656,16 +18662,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18686,7 +18692,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18694,7 +18700,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18713,12 +18719,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18738,7 +18744,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18749,7 +18755,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18787,7 +18793,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18800,7 +18806,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18826,7 +18832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18852,7 +18858,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18872,7 +18878,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18892,7 +18898,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18918,7 +18924,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18938,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18961,7 +18967,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18981,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -19007,7 +19013,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -19027,7 +19033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -19050,7 +19056,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -19070,7 +19076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -19096,7 +19102,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -19117,7 +19123,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -19141,7 +19147,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -19162,7 +19168,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -19189,7 +19195,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19210,7 +19216,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19234,7 +19240,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19255,7 +19261,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19282,7 +19288,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19303,7 +19309,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19329,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19349,7 +19355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19375,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19395,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19421,7 +19427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19441,7 +19447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19461,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19487,7 +19493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19507,7 +19513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19527,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19553,7 +19559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19573,7 +19579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19593,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19619,7 +19625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19639,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19659,7 +19665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19685,7 +19691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19705,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19725,7 +19731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19751,7 +19757,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19771,7 +19777,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19791,7 +19797,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19814,7 +19820,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19834,7 +19840,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19854,7 +19860,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19880,7 +19886,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19900,7 +19906,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19926,7 +19932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19946,7 +19952,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19972,7 +19978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -20010,7 +20016,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -20019,7 +20025,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -20041,7 +20047,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -20065,7 +20071,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -20083,7 +20089,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -20107,7 +20113,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -20126,7 +20132,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -20150,7 +20156,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -20184,24 +20190,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20222,7 +20228,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20231,7 +20237,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20248,7 +20254,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20266,7 +20272,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20284,7 +20290,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20302,7 +20308,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20320,7 +20326,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20338,7 +20344,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20356,7 +20362,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20374,7 +20380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20392,7 +20398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20410,7 +20416,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20431,14 +20437,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2020) attributable to cause</v>
@@ -20449,7 +20455,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20464,7 +20470,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -20472,7 +20478,7 @@
         <v>2.6879714999999992E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -20480,7 +20486,7 @@
         <v>0.14025685004313904</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -20488,7 +20494,7 @@
         <v>0.1504609236578823</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -20496,7 +20502,7 @@
         <v>0.11161772154851962</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -20504,7 +20510,7 @@
         <v>0.1940480394671277</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -20512,7 +20518,7 @@
         <v>1.8245371133766535E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -20520,7 +20526,7 @@
         <v>0.18179024982026401</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -20528,7 +20534,7 @@
         <v>0.19312196334969067</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20539,7 +20545,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20548,7 +20554,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20569,7 +20575,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20586,7 +20592,7 @@
         <v>7.9660060613350195E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20603,7 +20609,7 @@
         <v>0.158873380541285</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20620,7 +20626,7 @@
         <v>4.3830843374711298E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20637,7 +20643,7 @@
         <v>1.7649542293752901E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20654,7 +20660,7 @@
         <v>2.7329121636381602E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20671,7 +20677,7 @@
         <v>5.4726958698978499E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20688,7 +20694,7 @@
         <v>2.9578014059303396E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20705,7 +20711,7 @@
         <v>0.22872559914891799</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20722,7 +20728,7 @@
         <v>0.38624669228669217</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20745,7 +20751,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20754,7 +20760,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20770,7 +20776,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -20778,7 +20784,7 @@
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -20786,7 +20792,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -20794,7 +20800,7 @@
         <v>0.26739999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -20802,7 +20808,7 @@
         <v>0.12529999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -20810,7 +20816,7 @@
         <v>7.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -20818,7 +20824,7 @@
         <v>8.14E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -20826,7 +20832,7 @@
         <v>4.7699999999999992E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -20834,7 +20840,7 @@
         <v>0.14779999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -20842,7 +20848,7 @@
         <v>0.20189999999776481</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20870,13 +20876,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2020)</v>
@@ -20900,7 +20906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20923,7 +20929,7 @@
         <v>0.2762</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20944,7 +20950,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20965,7 +20971,7 @@
         <v>0.2626</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20986,7 +20992,7 @@
         <v>0.1011</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20994,7 +21000,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -21002,7 +21008,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -21025,7 +21031,7 @@
         <v>0.70150000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -21045,7 +21051,7 @@
         <v>0.24340000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -21065,7 +21071,7 @@
         <v>4.6900000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -21085,7 +21091,7 @@
         <v>8.2169000000000009E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -21099,7 +21105,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -21143,7 +21149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -21187,7 +21193,7 @@
         <v>0.46822999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -21244,14 +21250,14 @@
         <v>0.25048392735341446</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -21277,13 +21283,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2020)</v>
@@ -21307,7 +21313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -21330,7 +21336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -21350,7 +21356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -21370,7 +21376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21412,13 +21418,13 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21435,7 +21441,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21458,10 +21464,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21484,10 +21490,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21507,7 +21513,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21524,7 +21530,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21541,7 +21547,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21561,7 +21567,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21578,7 +21584,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21597,7 +21603,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21627,11 +21633,11 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21639,7 +21645,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21656,7 +21662,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21670,7 +21676,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21684,7 +21690,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21698,7 +21704,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21710,7 +21716,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21722,7 +21728,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21731,7 +21737,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21742,7 +21748,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21751,7 +21757,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21760,7 +21766,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21771,7 +21777,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21782,7 +21788,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21791,7 +21797,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21805,7 +21811,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21817,7 +21823,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21829,31 +21835,35 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="82"/>
-      <c r="D19" s="81"/>
+      <c r="D19" s="81" t="s">
+        <v>216</v>
+      </c>
       <c r="E19" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="82"/>
-      <c r="D20" s="84"/>
+      <c r="D20" s="84" t="s">
+        <v>216</v>
+      </c>
       <c r="E20" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21882,7 +21892,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21890,7 +21900,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21904,7 +21914,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21918,7 +21928,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21945,11 +21955,11 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="D39" sqref="D2:D39"/>
+    <sheetView topLeftCell="A7" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21959,7 +21969,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21977,7 +21987,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -21994,7 +22004,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -22011,7 +22021,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -22028,7 +22038,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -22045,7 +22055,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -22062,7 +22072,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -22079,7 +22089,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -22096,7 +22106,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -22113,7 +22123,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -22130,7 +22140,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -22147,7 +22157,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -22164,7 +22174,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -22181,7 +22191,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -22198,7 +22208,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -22215,7 +22225,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -22232,7 +22242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -22249,7 +22259,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -22266,7 +22276,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -22274,7 +22284,8 @@
         <v>0.191</v>
       </c>
       <c r="C19" s="85">
-        <v>0.95</v>
+        <f>(1-food_insecure)*0.95</f>
+        <v>0.89109999999999989</v>
       </c>
       <c r="D19" s="86">
         <v>3.02</v>
@@ -22283,7 +22294,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -22300,7 +22311,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -22317,7 +22328,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -22334,7 +22345,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -22351,7 +22362,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -22368,7 +22379,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22385,7 +22396,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22402,7 +22413,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22419,7 +22430,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22436,7 +22447,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22453,7 +22464,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22470,7 +22481,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22487,7 +22498,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22504,7 +22515,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22521,7 +22532,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22538,7 +22549,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22555,7 +22566,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22572,7 +22583,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22590,7 +22601,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22607,7 +22618,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22624,7 +22635,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBAF3A83-CF18-4D1B-89E5-4C3A640EF6D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DBFEE7-9590-4067-9125-F457D1A43FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6859,8 +6859,8 @@
   </sheetPr>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6915,7 +6915,9 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
@@ -8884,7 +8886,7 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -12899,12 +12901,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12914,6 +12910,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DBFEE7-9590-4067-9125-F457D1A43FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D95C6F02-36EC-4F1B-9286-35A1260BDE98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -6537,7 +6537,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="67">
-        <v>2.76E-2</v>
+        <v>2.758E-2</v>
       </c>
       <c r="D45" s="17"/>
     </row>
@@ -6546,7 +6546,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="67">
-        <v>9.6199999999999994E-2</v>
+        <v>9.6189999999999998E-2</v>
       </c>
       <c r="D46" s="17"/>
     </row>
@@ -6555,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="67">
-        <v>0.29309999999999997</v>
+        <v>0.29309000000000002</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C48" s="70">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
-        <v>0.58310000000000017</v>
+        <v>0.58313999999999988</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D95C6F02-36EC-4F1B-9286-35A1260BDE98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9ADA8E3-AC30-4897-A94F-28BB8FFEA385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
     <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
-    <sheet name="Reference programs" sheetId="59" r:id="rId11"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="Programs impacted population" sheetId="62" r:id="rId13"/>
+    <sheet name="Programs impacted population" sheetId="62" r:id="rId11"/>
+    <sheet name="Reference programs" sheetId="59" r:id="rId12"/>
+    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId13"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
     <sheet name="Program risk areas" sheetId="63" r:id="rId15"/>
     <sheet name="Population risk areas" sheetId="64" r:id="rId16"/>
@@ -6853,220 +6853,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr codeName="Sheet11">
-    <tabColor theme="0" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:A19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr codeName="Sheet12">
-    <tabColor theme="0" tint="-0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="26">
-        <f>'Baseline year population inputs'!C51</f>
-        <v>2.3852974352649898</v>
-      </c>
-      <c r="C2" s="26">
-        <f>'Baseline year population inputs'!C52</f>
-        <v>2.3146142467800002</v>
-      </c>
-      <c r="D2" s="26">
-        <f>'Baseline year population inputs'!C53</f>
-        <v>2.3146142467800002</v>
-      </c>
-      <c r="E2" s="26">
-        <f>'Baseline year population inputs'!C54</f>
-        <v>1.6670658655599999</v>
-      </c>
-      <c r="F2" s="26">
-        <f>'Baseline year population inputs'!C55</f>
-        <v>1.6670658655599999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="26">
-        <f>frac_mam_1month * 2.6</f>
-        <v>0.22646000000000002</v>
-      </c>
-      <c r="C3" s="26">
-        <f>frac_mam_1_5months * 2.6</f>
-        <v>0.22646000000000002</v>
-      </c>
-      <c r="D3" s="26">
-        <f>frac_mam_6_11months * 2.6</f>
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="E3" s="26">
-        <f>frac_mam_12_23months * 2.6</f>
-        <v>0.15314</v>
-      </c>
-      <c r="F3" s="26">
-        <f>frac_mam_24_59months * 2.6</f>
-        <v>0.12194000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="26">
-        <f>frac_sam_1month * 2.6</f>
-        <v>0.10062</v>
-      </c>
-      <c r="C4" s="26">
-        <f>frac_sam_1_5months * 2.6</f>
-        <v>0.10062</v>
-      </c>
-      <c r="D4" s="26">
-        <f>frac_sam_6_11months * 2.6</f>
-        <v>8.6132020000000004E-3</v>
-      </c>
-      <c r="E4" s="26">
-        <f>frac_sam_12_23months * 2.6</f>
-        <v>5.7459999999999997E-2</v>
-      </c>
-      <c r="F4" s="26">
-        <f>frac_sam_24_59months * 2.6</f>
-        <v>2.1363940000000005E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -8876,6 +8662,220 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="R6E4Z1eMEwhWY9x8ah7fn60K/FUhiD3bjZsN+d0aneOUBQjx+MSzEQ3f4xgLromXQacg2RuQX2zps17p5X6/Gg==" saltValue="2H1gYE0Uxd3bfzXEuxrcUQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet11">
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12">
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="26">
+        <f>'Baseline year population inputs'!C51</f>
+        <v>2.3852974352649898</v>
+      </c>
+      <c r="C2" s="26">
+        <f>'Baseline year population inputs'!C52</f>
+        <v>2.3146142467800002</v>
+      </c>
+      <c r="D2" s="26">
+        <f>'Baseline year population inputs'!C53</f>
+        <v>2.3146142467800002</v>
+      </c>
+      <c r="E2" s="26">
+        <f>'Baseline year population inputs'!C54</f>
+        <v>1.6670658655599999</v>
+      </c>
+      <c r="F2" s="26">
+        <f>'Baseline year population inputs'!C55</f>
+        <v>1.6670658655599999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="26">
+        <f>frac_mam_1month * 2.6</f>
+        <v>0.22646000000000002</v>
+      </c>
+      <c r="C3" s="26">
+        <f>frac_mam_1_5months * 2.6</f>
+        <v>0.22646000000000002</v>
+      </c>
+      <c r="D3" s="26">
+        <f>frac_mam_6_11months * 2.6</f>
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="E3" s="26">
+        <f>frac_mam_12_23months * 2.6</f>
+        <v>0.15314</v>
+      </c>
+      <c r="F3" s="26">
+        <f>frac_mam_24_59months * 2.6</f>
+        <v>0.12194000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="26">
+        <f>frac_sam_1month * 2.6</f>
+        <v>0.10062</v>
+      </c>
+      <c r="C4" s="26">
+        <f>frac_sam_1_5months * 2.6</f>
+        <v>0.10062</v>
+      </c>
+      <c r="D4" s="26">
+        <f>frac_sam_6_11months * 2.6</f>
+        <v>8.6132020000000004E-3</v>
+      </c>
+      <c r="E4" s="26">
+        <f>frac_sam_12_23months * 2.6</f>
+        <v>5.7459999999999997E-2</v>
+      </c>
+      <c r="F4" s="26">
+        <f>frac_sam_24_59months * 2.6</f>
+        <v>2.1363940000000005E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -11791,7 +11791,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11906,8 +11906,7 @@
         <v>178</v>
       </c>
       <c r="D5" s="105">
-        <f>5.16</f>
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E5" s="105">
         <v>1</v>
@@ -11928,7 +11927,7 @@
         <v>177</v>
       </c>
       <c r="D6" s="105">
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E6" s="105">
         <v>1</v>
@@ -11975,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F8" s="105">
         <v>1</v>
@@ -11996,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F9" s="105">
         <v>1</v>
@@ -12401,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G28" s="105">
         <v>1</v>
@@ -12422,7 +12421,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G29" s="105">
         <v>1</v>
@@ -12469,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
@@ -12490,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
@@ -12901,6 +12900,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12910,12 +12915,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17306,7 +17305,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17424,10 +17423,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G7" s="121">
         <v>1</v>
@@ -18791,8 +18790,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="B10:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19006,13 +19005,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -19026,10 +19025,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H10" s="121">
         <v>0</v>
@@ -19049,13 +19048,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -19069,10 +19068,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H12" s="121">
         <v>0</v>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9ADA8E3-AC30-4897-A94F-28BB8FFEA385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3819CF2B-A9B9-47C2-B4DD-58DD42EDDF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6678,8 +6678,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6744,9 +6744,7 @@
       <c r="B6" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="87" t="s">
-        <v>58</v>
-      </c>
+      <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
@@ -12900,12 +12898,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12915,6 +12907,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18790,7 +18788,7 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="B10:F12"/>
     </sheetView>
   </sheetViews>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3819CF2B-A9B9-47C2-B4DD-58DD42EDDF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2646FEBC-9210-4D70-B8B0-66B042BF3B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6203,7 +6203,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6304,7 +6304,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="66">
-        <v>0.58200000000000007</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6679,7 +6679,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6747,8 +6747,12 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6858,7 +6862,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8885,7 +8889,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9047,7 +9051,8 @@
         <v>196</v>
       </c>
       <c r="C4" s="93">
-        <v>1</v>
+        <f>frac_children_health_facility</f>
+        <v>0.371</v>
       </c>
       <c r="D4" s="93">
         <v>0</v>
@@ -12898,6 +12903,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12907,12 +12918,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18688,7 +18693,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18731,16 +18736,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18789,7 +18794,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="B10:F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18914,13 +18919,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>6.2E-2</v>
       </c>
       <c r="G5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>6.2E-2</v>
       </c>
       <c r="H5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -18934,13 +18942,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H6" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -18957,13 +18968,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>6.2E-2</v>
       </c>
       <c r="G7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>6.2E-2</v>
       </c>
       <c r="H7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -18977,13 +18991,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H8" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -19982,7 +19999,7 @@
         <v>268</v>
       </c>
       <c r="D53" s="121">
-        <v>0.88</v>
+        <v>0.49</v>
       </c>
       <c r="E53" s="121">
         <v>0</v>
@@ -21633,7 +21650,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21807,7 +21824,7 @@
       <c r="D16" s="83"/>
       <c r="E16" s="59" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -21816,10 +21833,12 @@
         <v>1</v>
       </c>
       <c r="C17" s="82"/>
-      <c r="D17" s="81"/>
+      <c r="D17" s="81" t="s">
+        <v>216</v>
+      </c>
       <c r="E17" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -21828,10 +21847,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="82"/>
-      <c r="D18" s="81"/>
+      <c r="D18" s="81" t="s">
+        <v>216</v>
+      </c>
       <c r="E18" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -21845,7 +21866,7 @@
       </c>
       <c r="E19" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -21859,7 +21880,7 @@
       </c>
       <c r="E20" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -21869,9 +21890,7 @@
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="82" t="s">
-        <v>216</v>
-      </c>
+      <c r="E21" s="82"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="vq8GGOaRJ/GOerAtWxGFZETtNZKg0CexetWZmxch7xxZfD8kikbgXpfHcTl9WJ8jnE0H0jIRnikgCGGsTyAIVg==" saltValue="HrYs8mMt6vkZgEdYoitBSg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
@@ -21954,8 +21973,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22031,7 +22050,7 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="86">
-        <v>126.72</v>
+        <v>7.07</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>201</v>
@@ -22304,7 +22323,7 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="86">
-        <v>84.45</v>
+        <v>0</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>201</v>
@@ -22335,7 +22354,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="85">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="D22" s="86">
         <v>31.5</v>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2646FEBC-9210-4D70-B8B0-66B042BF3B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87132AEC-28A7-4C20-808F-F016F5B5B3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22050,7 +22050,7 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="86">
-        <v>7.07</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>201</v>
@@ -22323,7 +22323,7 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>201</v>

--- a/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
+++ b/analyses/inputs/Opt 2020 base/Myanmar_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Opt 2020 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87132AEC-28A7-4C20-808F-F016F5B5B3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E11267-8717-4735-87FF-1FEEC4217607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6679,7 +6679,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6747,12 +6747,8 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>58</v>
-      </c>
+      <c r="A7" s="89"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12903,12 +12899,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12918,6 +12908,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
